--- a/src/main/resources/demo-mocai-reader.xlsx
+++ b/src/main/resources/demo-mocai-reader.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14811" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14813" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -326,6 +326,14 @@
     <t>张关公</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>图片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行行行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -549,16 +557,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,6 +576,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -579,6 +655,204 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE74372E-1811-4A44-A544-C0536D8DDF3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1676399" y="9525"/>
+          <a:ext cx="4857751" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1608651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11477B06-58A4-4D64-9E23-D730713CBC5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="2895601"/>
+          <a:ext cx="2200275" cy="1475300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2552700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1684851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8370A03-94CE-4C9B-8F5C-0253A71C452B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="2971801"/>
+          <a:ext cx="2200275" cy="1475300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1761051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEBB375-AE4D-47BA-BFEC-43A10D18DEFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="3048001"/>
+          <a:ext cx="2200275" cy="1475300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -587,7 +861,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -869,89 +1143,89 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -90109,15 +90383,6 @@
     <protectedRange sqref="N1119" name="区域1_1_29_1_1"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
@@ -90130,6 +90395,15 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -90139,28 +90413,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.25" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
       <c r="B1">
         <v>13380384850</v>
       </c>
-    </row>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" ht="220.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>